--- a/biology/Médecine/Certolizumab_pegol/Certolizumab_pegol.xlsx
+++ b/biology/Médecine/Certolizumab_pegol/Certolizumab_pegol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Certolizumab pegol est un anticorps monoclonal dirigé contre le TNF alpha. Il est dit « pegol » car il est lié à du polyéthylène glycol.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Maladie de Crohn
-Le 22 avril 2008, la FDA a approuvé Cimzia du laboratoire UCB Pharma SA dans le traitement de la maladie de Crohn chez les personnes qui ne répondent pas suffisamment au traitement standard[1],[2],[3].
-La polyarthrite rhumatoïde
-Il est actif dans les formes résistantes de la polyarthrite rhumatoïde[4]. Même s'il n'est pas plus efficace, en association avec le méthotrexate, que l'adalimumab , dans cette indication, il peut constituer une alternative aux formes résistantes à ce dernier[5].
-Le 26 juin 2009, le Comité des médicaments à Usage Humain (CHMP) de l'Agence Européenne des Médicaments (EMA) a émis un avis favorable recommandant que la Commission Européenne d'accorder une autorisation de commercialisation pour Cimzia dans le traitement de la polyarthrite rhumatoïde[6], le CHMP a refusé l'approbation pour le traitement de la maladie de Crohn. L'amm a été accordée à UCB Pharma SA, le 1er octobre 2009[7].
+          <t>La Maladie de Crohn</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 22 avril 2008, la FDA a approuvé Cimzia du laboratoire UCB Pharma SA dans le traitement de la maladie de Crohn chez les personnes qui ne répondent pas suffisamment au traitement standard.
 </t>
         </is>
       </c>
@@ -543,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Méthode d'action</t>
+          <t>Les approbations et les indications</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Certolizumab pegol est un anticorps monoclonal dirigé contre le TNF alpha. Plus précisément, c'est un fragment Pégylé Fab humanisé inhibiteur du TNF (Chimère homme-souris)[8].
+          <t>La polyarthrite rhumatoïde</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est actif dans les formes résistantes de la polyarthrite rhumatoïde. Même s'il n'est pas plus efficace, en association avec le méthotrexate, que l'adalimumab , dans cette indication, il peut constituer une alternative aux formes résistantes à ce dernier.
+Le 26 juin 2009, le Comité des médicaments à Usage Humain (CHMP) de l'Agence Européenne des Médicaments (EMA) a émis un avis favorable recommandant que la Commission Européenne d'accorder une autorisation de commercialisation pour Cimzia dans le traitement de la polyarthrite rhumatoïde, le CHMP a refusé l'approbation pour le traitement de la maladie de Crohn. L'amm a été accordée à UCB Pharma SA, le 1er octobre 2009.
 </t>
         </is>
       </c>
@@ -574,12 +595,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Méthode d'action</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Certolizumab pegol est un anticorps monoclonal dirigé contre le TNF alpha. Plus précisément, c'est un fragment Pégylé Fab humanisé inhibiteur du TNF (Chimère homme-souris).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Certolizumab_pegol</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Certolizumab_pegol</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des effets secondaires graves se produisent dans 2 % des personnes qui prennent le médicament[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des effets secondaires graves se produisent dans 2 % des personnes qui prennent le médicament.
 </t>
         </is>
       </c>
